--- a/Admin/Liam/TimeSheet_Week12.xlsx
+++ b/Admin/Liam/TimeSheet_Week12.xlsx
@@ -25,7 +25,7 @@
     <t xml:space="preserve">Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Gabriela </t>
+    <t xml:space="preserve">Liam </t>
   </si>
   <si>
     <t xml:space="preserve">Project Team</t>
@@ -361,10 +361,10 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.19140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.2109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="6.5"/>
